--- a/CashFlow/ROP_cashflow.xlsx
+++ b/CashFlow/ROP_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>836000000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>836000000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>645900000.0</v>
+        <v>-7300000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>424100000.0</v>
+        <v>-18000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>208200000.0</v>
+        <v>-8100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-17300000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>727000000.0</v>
+        <v>145400000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>717000000.0</v>
+        <v>121600000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>586000000.0</v>
+        <v>100300000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>447800000.0</v>
+        <v>100600000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>261600000.0</v>
+        <v>10400000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-12200000.0</v>
